--- a/Batch223 project.xlsx
+++ b/Batch223 project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Krunal</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>word doc</t>
+  </si>
+  <si>
+    <t>malanabi kammer</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +702,9 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>

--- a/Batch223 project.xlsx
+++ b/Batch223 project.xlsx
@@ -46,9 +46,6 @@
     <t>Hotel Booking</t>
   </si>
   <si>
-    <t>Corporate Transport</t>
-  </si>
-  <si>
     <t>COVID-19 Hospital</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>malanabi kammer</t>
+  </si>
+  <si>
+    <t>Employee Management</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,16 +571,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,94 +608,94 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -738,32 +738,32 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
